--- a/朝代表.xlsx
+++ b/朝代表.xlsx
@@ -1593,269 +1593,269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="B1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:5">
+      <c r="B1" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="2:5">
+      <c r="B11" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="2:5">
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="2:5">
+      <c r="B17" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="2:5">
+      <c r="B21" s="3"/>
+      <c r="C21" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="2:5">
+      <c r="B22" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
